--- a/Good Recordings/8.11.Labels.xlsx
+++ b/Good Recordings/8.11.Labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C578F2F-9790-40AA-BD34-D274F830A921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA95054-3AF6-470F-B833-D2BA084E8B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8870C602-4A36-441D-84F2-071E7088CFCA}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>1291</v>
       </c>
       <c r="B7" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
